--- a/backend/hct_mis_api/apps/payment/tests/test_file/import_file_one_record.xlsx
+++ b/backend/hct_mis_api/apps/payment/tests/test_file/import_file_one_record.xlsx
@@ -46,7 +46,7 @@
     <t>delivery_date</t>
   </si>
   <si>
-    <t>RCPT-0060-23-0.000.001</t>
+    <t>RCPT-0060-24-0.000.001</t>
   </si>
 </sst>
 </file>
@@ -88,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -111,13 +111,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -134,6 +221,33 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1246,7 +1360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1314,6 +1428,110 @@
         <v>45051</v>
       </c>
     </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
